--- a/Feature-Analysis/DataDictionary.xlsx
+++ b/Feature-Analysis/DataDictionary.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$88</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="181">
   <si>
     <t>trackid</t>
   </si>
@@ -567,6 +568,9 @@
   </si>
   <si>
     <t xml:space="preserve"> tempo2</t>
+  </si>
+  <si>
+    <t>' tempo2',</t>
   </si>
 </sst>
 </file>
@@ -892,10 +896,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:CF88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,9 +908,10 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
@@ -917,7 +922,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -931,7 +936,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -948,245 +953,8 @@
         <f>"'"&amp;A3&amp;"',"</f>
         <v>' bill_popularity',</v>
       </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R3" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T3" t="s">
-        <v>113</v>
-      </c>
-      <c r="U3" t="s">
-        <v>114</v>
-      </c>
-      <c r="V3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W3" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>154</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>174</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>177</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1199,11 +967,8 @@
       <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1216,11 +981,8 @@
       <c r="D5" t="s">
         <v>88</v>
       </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1237,11 +999,8 @@
         <f t="shared" ref="E6:E38" si="0">"'"&amp;A6&amp;"',"</f>
         <v>' weeks_ranked',</v>
       </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1258,11 +1017,8 @@
         <f t="shared" si="0"/>
         <v>' highest_rank',</v>
       </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1279,11 +1035,8 @@
         <f t="shared" si="0"/>
         <v>' lowest_rank',</v>
       </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1300,11 +1053,8 @@
         <f t="shared" si="0"/>
         <v>' weeks_top_spot',</v>
       </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1321,11 +1071,8 @@
         <f t="shared" si="0"/>
         <v>' weeks_top_10',</v>
       </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1342,11 +1089,8 @@
         <f t="shared" si="0"/>
         <v>' weeks_top_20',</v>
       </c>
-      <c r="F11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1363,11 +1107,8 @@
         <f t="shared" si="0"/>
         <v>' weeks_top_30',</v>
       </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1384,11 +1125,8 @@
         <f t="shared" si="0"/>
         <v>' weeks_top_40',</v>
       </c>
-      <c r="F13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1405,11 +1143,8 @@
         <f t="shared" si="0"/>
         <v>' weeks_top_50',</v>
       </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1426,11 +1161,8 @@
         <f t="shared" si="0"/>
         <v>' average_rank',</v>
       </c>
-      <c r="F15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1447,11 +1179,8 @@
         <f t="shared" si="0"/>
         <v>' first_appearance',</v>
       </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1468,11 +1197,8 @@
         <f t="shared" si="0"/>
         <v>' year_first_appear',</v>
       </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1489,11 +1215,8 @@
         <f t="shared" si="0"/>
         <v>' last_appearance',</v>
       </c>
-      <c r="F18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1510,11 +1233,8 @@
         <f t="shared" si="0"/>
         <v>' year_last_appear',</v>
       </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1531,11 +1251,8 @@
         <f t="shared" si="0"/>
         <v>' decade',</v>
       </c>
-      <c r="F20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1552,11 +1269,8 @@
         <f t="shared" si="0"/>
         <v>' danceability',</v>
       </c>
-      <c r="F21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1573,11 +1287,8 @@
         <f t="shared" si="0"/>
         <v>' duration',</v>
       </c>
-      <c r="F22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1594,11 +1305,8 @@
         <f t="shared" si="0"/>
         <v>' end_of_fade_in',</v>
       </c>
-      <c r="F23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1615,11 +1323,8 @@
         <f t="shared" si="0"/>
         <v>' energy',</v>
       </c>
-      <c r="F24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1636,11 +1341,8 @@
         <f t="shared" si="0"/>
         <v>' key_confidence',</v>
       </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1657,11 +1359,8 @@
         <f t="shared" si="0"/>
         <v>' key_song',</v>
       </c>
-      <c r="F26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1678,11 +1377,8 @@
         <f t="shared" si="0"/>
         <v>' loudness',</v>
       </c>
-      <c r="F27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1699,11 +1395,8 @@
         <f t="shared" si="0"/>
         <v>' mode',</v>
       </c>
-      <c r="F28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1720,11 +1413,8 @@
         <f t="shared" si="0"/>
         <v>' mode_confidence',</v>
       </c>
-      <c r="F29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1741,11 +1431,8 @@
         <f t="shared" si="0"/>
         <v>' start_of_fade_out',</v>
       </c>
-      <c r="F30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1762,11 +1449,8 @@
         <f t="shared" si="0"/>
         <v>' tempo',</v>
       </c>
-      <c r="F31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1783,11 +1467,8 @@
         <f t="shared" si="0"/>
         <v>' time_signature',</v>
       </c>
-      <c r="F32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1804,11 +1485,8 @@
         <f t="shared" si="0"/>
         <v>' time_signature_confidence',</v>
       </c>
-      <c r="F33" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1825,11 +1503,8 @@
         <f t="shared" si="0"/>
         <v>' GrossDomesticProduct',</v>
       </c>
-      <c r="F34" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1846,11 +1521,8 @@
         <f t="shared" si="0"/>
         <v>' PersonalIncome',</v>
       </c>
-      <c r="F35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1867,11 +1539,8 @@
         <f t="shared" si="0"/>
         <v>' Unemployment_Rate_Year_AVG',</v>
       </c>
-      <c r="F36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1888,11 +1557,8 @@
         <f t="shared" si="0"/>
         <v>' Adjusted_CPI_Year_AVG',</v>
       </c>
-      <c r="F37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1909,11 +1575,8 @@
         <f t="shared" si="0"/>
         <v>' Misery_Index_Year_AVG',</v>
       </c>
-      <c r="F38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1926,11 +1589,8 @@
       <c r="D39" t="s">
         <v>88</v>
       </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1947,11 +1607,8 @@
         <f t="shared" ref="E40:E80" si="1">"'"&amp;A40&amp;"',"</f>
         <v>' Blues',</v>
       </c>
-      <c r="F40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1968,11 +1625,8 @@
         <f t="shared" si="1"/>
         <v>' Cumulative_Weeks',</v>
       </c>
-      <c r="F41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1989,11 +1643,8 @@
         <f t="shared" si="1"/>
         <v>' Unique_Song_Count',</v>
       </c>
-      <c r="F42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2010,11 +1661,8 @@
         <f t="shared" si="1"/>
         <v>' Unique_Artist_Count',</v>
       </c>
-      <c r="F43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2031,11 +1679,8 @@
         <f t="shared" si="1"/>
         <v>' as_chart_count',</v>
       </c>
-      <c r="F44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2052,11 +1697,8 @@
         <f t="shared" si="1"/>
         <v>' Total_Songs',</v>
       </c>
-      <c r="F45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2073,11 +1715,8 @@
         <f t="shared" si="1"/>
         <v>' Find_Duplicate_Titles',</v>
       </c>
-      <c r="F46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2094,11 +1733,8 @@
         <f t="shared" si="1"/>
         <v>' First_Year_on_Chart',</v>
       </c>
-      <c r="F47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2115,11 +1751,8 @@
         <f t="shared" si="1"/>
         <v>' Years_on_Chart',</v>
       </c>
-      <c r="F48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2136,11 +1769,8 @@
         <f t="shared" si="1"/>
         <v>' Points',</v>
       </c>
-      <c r="F49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2157,11 +1787,8 @@
         <f t="shared" si="1"/>
         <v>' Random',</v>
       </c>
-      <c r="F50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2178,11 +1805,8 @@
         <f t="shared" si="1"/>
         <v>' ChildrensMusic',</v>
       </c>
-      <c r="F51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2199,11 +1823,8 @@
         <f t="shared" si="1"/>
         <v>' Christian_Gospel',</v>
       </c>
-      <c r="F52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2220,11 +1841,8 @@
         <f t="shared" si="1"/>
         <v>' Christmas',</v>
       </c>
-      <c r="F53" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2241,11 +1859,8 @@
         <f t="shared" si="1"/>
         <v>' Classical',</v>
       </c>
-      <c r="F54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2262,11 +1877,8 @@
         <f t="shared" si="1"/>
         <v>' Comedy',</v>
       </c>
-      <c r="F55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2283,11 +1895,8 @@
         <f t="shared" si="1"/>
         <v>' Country_',</v>
       </c>
-      <c r="F56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2304,11 +1913,8 @@
         <f t="shared" si="1"/>
         <v>' Folk',</v>
       </c>
-      <c r="F57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2325,11 +1931,8 @@
         <f t="shared" si="1"/>
         <v>' House_Electronic_Trance',</v>
       </c>
-      <c r="F58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2346,11 +1949,8 @@
         <f t="shared" si="1"/>
         <v>' Jazz',</v>
       </c>
-      <c r="F59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2367,11 +1967,8 @@
         <f t="shared" si="1"/>
         <v>' Last_Position',</v>
       </c>
-      <c r="F60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2388,11 +1985,8 @@
         <f t="shared" si="1"/>
         <v>' Latin',</v>
       </c>
-      <c r="F61" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2409,11 +2003,8 @@
         <f t="shared" si="1"/>
         <v>' Latitude',</v>
       </c>
-      <c r="F62" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2430,11 +2021,8 @@
         <f t="shared" si="1"/>
         <v>' Longitude',</v>
       </c>
-      <c r="F63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2451,11 +2039,8 @@
         <f t="shared" si="1"/>
         <v>' Metal',</v>
       </c>
-      <c r="F64" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2472,11 +2057,8 @@
         <f t="shared" si="1"/>
         <v>' Neighborhood',</v>
       </c>
-      <c r="F65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2493,11 +2075,8 @@
         <f t="shared" si="1"/>
         <v>' Number_of_Records',</v>
       </c>
-      <c r="F66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2514,11 +2093,8 @@
         <f t="shared" si="1"/>
         <v>' Peak_Position',</v>
       </c>
-      <c r="F67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2535,11 +2111,8 @@
         <f t="shared" si="1"/>
         <v>' Pop_Standards',</v>
       </c>
-      <c r="F68" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2556,11 +2129,8 @@
         <f t="shared" si="1"/>
         <v>' Pop',</v>
       </c>
-      <c r="F69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2577,11 +2147,8 @@
         <f t="shared" si="1"/>
         <v>' Punk',</v>
       </c>
-      <c r="F70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2598,11 +2165,8 @@
         <f t="shared" si="1"/>
         <v>' R_And_B',</v>
       </c>
-      <c r="F71" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2619,11 +2183,8 @@
         <f t="shared" si="1"/>
         <v>' as_rank',</v>
       </c>
-      <c r="F72" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2640,11 +2201,8 @@
         <f t="shared" si="1"/>
         <v>' Rap_Hip_Hop',</v>
       </c>
-      <c r="F73" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2661,11 +2219,8 @@
         <f t="shared" si="1"/>
         <v>' Rock_And_Roll',</v>
       </c>
-      <c r="F74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2682,11 +2237,8 @@
         <f t="shared" si="1"/>
         <v>' Rock',</v>
       </c>
-      <c r="F75" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2703,11 +2255,8 @@
         <f t="shared" si="1"/>
         <v>' Ska_Reggae_Dancehall',</v>
       </c>
-      <c r="F76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2724,11 +2273,8 @@
         <f t="shared" si="1"/>
         <v>' Soul',</v>
       </c>
-      <c r="F77" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2745,11 +2291,8 @@
         <f t="shared" si="1"/>
         <v>' Soundtrack',</v>
       </c>
-      <c r="F78" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2766,11 +2309,8 @@
         <f t="shared" si="1"/>
         <v>' Spoken_Word',</v>
       </c>
-      <c r="F79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2787,11 +2327,8 @@
         <f t="shared" si="1"/>
         <v>' Weeks_on_Chart',</v>
       </c>
-      <c r="F80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2804,11 +2341,8 @@
       <c r="D81" t="s">
         <v>88</v>
       </c>
-      <c r="F81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2825,11 +2359,8 @@
         <f t="shared" ref="E82:E88" si="2">"'"&amp;A82&amp;"',"</f>
         <v>' number_1s',</v>
       </c>
-      <c r="F82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2846,11 +2377,8 @@
         <f t="shared" si="2"/>
         <v>' weeks_at_number_1',</v>
       </c>
-      <c r="F83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2867,11 +2395,8 @@
         <f t="shared" si="2"/>
         <v>' chart_appearances',</v>
       </c>
-      <c r="F84" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2889,7 +2414,7 @@
         <v>' artist_weeks_at_number_1',</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -2907,7 +2432,7 @@
         <v>' tempo2',</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2925,7 +2450,7 @@
         <v>' speed_general',</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2952,4 +2477,675 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CE82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:CE1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>177</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>